--- a/results/input_sweep_r17/h2000_M0.25_R1250km_PL700kg/ReqPowDATA.xlsx
+++ b/results/input_sweep_r17/h2000_M0.25_R1250km_PL700kg/ReqPowDATA.xlsx
@@ -486,10 +486,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>64.01100560006643</v>
+        <v>63.86545526550599</v>
       </c>
       <c r="F2" t="n">
-        <v>64.01100560006643</v>
+        <v>63.86545526550599</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -511,10 +511,10 @@
         <v>5</v>
       </c>
       <c r="E3" t="n">
-        <v>128.0220112001329</v>
+        <v>127.730910531012</v>
       </c>
       <c r="F3" t="n">
-        <v>128.0220112001329</v>
+        <v>127.730910531012</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -536,13 +536,13 @@
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>1240.665923745358</v>
+        <v>1237.844927036965</v>
       </c>
       <c r="F4" t="n">
-        <v>932.530282730486</v>
+        <v>930.4094240945557</v>
       </c>
       <c r="G4" t="n">
-        <v>308.1356410148719</v>
+        <v>307.4355029424089</v>
       </c>
     </row>
     <row r="5">
@@ -561,13 +561,13 @@
         <v>5.047445992327883</v>
       </c>
       <c r="E5" t="n">
-        <v>1280.220112001329</v>
+        <v>1277.30910531012</v>
       </c>
       <c r="F5" t="n">
-        <v>962.2975596052941</v>
+        <v>960.1089285610371</v>
       </c>
       <c r="G5" t="n">
-        <v>317.9225523960345</v>
+        <v>317.2001767490826</v>
       </c>
     </row>
     <row r="6">
@@ -586,10 +586,10 @@
         <v>232.5448697555975</v>
       </c>
       <c r="E6" t="n">
-        <v>508.5861257011946</v>
+        <v>507.4194787985921</v>
       </c>
       <c r="F6" t="n">
-        <v>508.5861257011946</v>
+        <v>507.4194787985921</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -611,10 +611,10 @@
         <v>15</v>
       </c>
       <c r="E7" t="n">
-        <v>508.5785050940526</v>
+        <v>405.9295084780365</v>
       </c>
       <c r="F7" t="n">
-        <v>508.5785050940526</v>
+        <v>405.9295084780365</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
